--- a/Final/アイスクリームの消費金額.xlsx
+++ b/Final/アイスクリームの消費金額.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takachiyo/Work/InfoVis2022/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D838A6A1-1AE8-E042-8B26-90E47D91B787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEFE685-5C46-C44A-ACE1-211A7C19E3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5320" yWindow="1000" windowWidth="23220" windowHeight="15900" xr2:uid="{DC22A647-546E-6943-8FC4-74D04BD8DE3E}"/>
   </bookViews>
@@ -37,153 +37,159 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
-    <t>東京都区部</t>
-  </si>
-  <si>
-    <t>札幌市</t>
-  </si>
-  <si>
-    <t>青森市</t>
-  </si>
-  <si>
-    <t>盛岡市</t>
-  </si>
-  <si>
-    <t>仙台市</t>
-  </si>
-  <si>
-    <t>秋田市</t>
-  </si>
-  <si>
-    <t>山形市</t>
-  </si>
-  <si>
-    <t>福島市</t>
-  </si>
-  <si>
-    <t>水戸市</t>
-  </si>
-  <si>
-    <t>宇都宮市</t>
-  </si>
-  <si>
-    <t>前橋市</t>
-  </si>
-  <si>
-    <t>さいたま市</t>
-  </si>
-  <si>
-    <t>千葉市</t>
-  </si>
-  <si>
-    <t>横浜市</t>
-  </si>
-  <si>
-    <t>新潟市</t>
-  </si>
-  <si>
-    <t>富山市</t>
-  </si>
-  <si>
-    <t>金沢市</t>
-  </si>
-  <si>
-    <t>福井市</t>
-  </si>
-  <si>
-    <t>甲府市</t>
-  </si>
-  <si>
-    <t>長野市</t>
-  </si>
-  <si>
-    <t>岐阜市</t>
-  </si>
-  <si>
-    <t>静岡市</t>
-  </si>
-  <si>
-    <t>名古屋市</t>
-  </si>
-  <si>
-    <t>津市</t>
-  </si>
-  <si>
-    <t>大津市</t>
-  </si>
-  <si>
-    <t>京都市</t>
-  </si>
-  <si>
-    <t>大阪市</t>
-  </si>
-  <si>
-    <t>神戸市</t>
-  </si>
-  <si>
-    <t>奈良市</t>
-  </si>
-  <si>
-    <t>和歌山市</t>
-  </si>
-  <si>
-    <t>鳥取市</t>
-  </si>
-  <si>
-    <t>松江市</t>
-  </si>
-  <si>
-    <t>岡山市</t>
-  </si>
-  <si>
-    <t>広島市</t>
-  </si>
-  <si>
-    <t>山口市</t>
-  </si>
-  <si>
-    <t>徳島市</t>
-  </si>
-  <si>
-    <t>高松市</t>
-  </si>
-  <si>
-    <t>松山市</t>
-  </si>
-  <si>
-    <t>高知市</t>
-  </si>
-  <si>
-    <t>福岡市</t>
-  </si>
-  <si>
-    <t>佐賀市</t>
-  </si>
-  <si>
-    <t>長崎市</t>
-  </si>
-  <si>
-    <t>熊本市</t>
-  </si>
-  <si>
-    <t>大分市</t>
-  </si>
-  <si>
-    <t>宮崎市</t>
-  </si>
-  <si>
-    <t>鹿児島市</t>
-  </si>
-  <si>
-    <t>那覇市</t>
-  </si>
-  <si>
-    <t>都道府県庁所在市</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>金額</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県名</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">トドウフケン </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>青森県</t>
+  </si>
+  <si>
+    <t>岩手県</t>
+  </si>
+  <si>
+    <t>宮城県</t>
+  </si>
+  <si>
+    <t>秋田県</t>
+  </si>
+  <si>
+    <t>山形県</t>
+  </si>
+  <si>
+    <t>福島県</t>
+  </si>
+  <si>
+    <t>茨城県</t>
+  </si>
+  <si>
+    <t>栃木県</t>
+  </si>
+  <si>
+    <t>群馬県</t>
+  </si>
+  <si>
+    <t>埼玉県</t>
+  </si>
+  <si>
+    <t>千葉県</t>
+  </si>
+  <si>
+    <t>東京都</t>
+  </si>
+  <si>
+    <t>神奈川県</t>
+  </si>
+  <si>
+    <t>新潟県</t>
+  </si>
+  <si>
+    <t>富山県</t>
+  </si>
+  <si>
+    <t>石川県</t>
+  </si>
+  <si>
+    <t>福井県</t>
+  </si>
+  <si>
+    <t>山梨県</t>
+  </si>
+  <si>
+    <t>長野県</t>
+  </si>
+  <si>
+    <t>岐阜県</t>
+  </si>
+  <si>
+    <t>静岡県</t>
+  </si>
+  <si>
+    <t>愛知県</t>
+  </si>
+  <si>
+    <t>三重県</t>
+  </si>
+  <si>
+    <t>滋賀県</t>
+  </si>
+  <si>
+    <t>京都府</t>
+  </si>
+  <si>
+    <t>大阪府</t>
+  </si>
+  <si>
+    <t>兵庫県</t>
+  </si>
+  <si>
+    <t>奈良県</t>
+  </si>
+  <si>
+    <t>和歌山県</t>
+  </si>
+  <si>
+    <t>鳥取県</t>
+  </si>
+  <si>
+    <t>島根県</t>
+  </si>
+  <si>
+    <t>岡山県</t>
+  </si>
+  <si>
+    <t>広島県</t>
+  </si>
+  <si>
+    <t>山口県</t>
+  </si>
+  <si>
+    <t>徳島県</t>
+  </si>
+  <si>
+    <t>香川県</t>
+  </si>
+  <si>
+    <t>愛媛県</t>
+  </si>
+  <si>
+    <t>高知県</t>
+  </si>
+  <si>
+    <t>福岡県</t>
+  </si>
+  <si>
+    <t>佐賀県</t>
+  </si>
+  <si>
+    <t>長崎県</t>
+  </si>
+  <si>
+    <t>熊本県</t>
+  </si>
+  <si>
+    <t>大分県</t>
+  </si>
+  <si>
+    <t>宮崎県</t>
+  </si>
+  <si>
+    <t>鹿児島県</t>
+  </si>
+  <si>
+    <t>沖縄県</t>
   </si>
 </sst>
 </file>
@@ -553,25 +559,22 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
+      <c r="A1" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>10399</v>
@@ -579,7 +582,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>8590</v>
@@ -587,7 +590,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>11482</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>9662</v>
@@ -603,7 +606,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>8184</v>
@@ -611,7 +614,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>10586</v>
@@ -619,7 +622,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>10975</v>
@@ -627,7 +630,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>9743</v>
@@ -635,7 +638,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>10304</v>
@@ -643,7 +646,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>8636</v>
@@ -651,7 +654,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>10441</v>
@@ -659,7 +662,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>9636</v>
@@ -667,7 +670,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>10331</v>
@@ -675,7 +678,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>9589</v>
@@ -683,7 +686,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>9886</v>
@@ -691,7 +694,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>10067</v>
@@ -699,7 +702,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>11887</v>
@@ -707,7 +710,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>9355</v>
@@ -715,7 +718,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>8925</v>
@@ -723,7 +726,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>9111</v>
@@ -731,7 +734,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>10012</v>
@@ -739,7 +742,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>9773</v>
@@ -747,7 +750,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>9125</v>
@@ -755,7 +758,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>9563</v>
@@ -763,7 +766,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>9901</v>
@@ -771,7 +774,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>7911</v>
@@ -779,7 +782,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>7945</v>
@@ -787,7 +790,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>10437</v>
@@ -795,7 +798,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>9442</v>
@@ -803,7 +806,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>7760</v>
@@ -811,7 +814,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>10139</v>
@@ -819,7 +822,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>8515</v>
@@ -827,7 +830,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>9842</v>
@@ -835,7 +838,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>10419</v>
@@ -843,7 +846,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>11667</v>
@@ -851,7 +854,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>8938</v>
@@ -859,7 +862,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>8560</v>
@@ -867,7 +870,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>8383</v>
@@ -875,7 +878,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>10948</v>
@@ -883,7 +886,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>9731</v>
@@ -891,7 +894,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>9190</v>
@@ -899,7 +902,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>7724</v>
@@ -907,7 +910,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>9804</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>7846</v>
@@ -923,7 +926,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>7986</v>
@@ -931,7 +934,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>8919</v>
@@ -939,7 +942,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>6871</v>
